--- a/codigo/2D/ejemplo_T3/malla_ejemplo.xlsx
+++ b/codigo/2D/ejemplo_T3/malla_ejemplo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="xnod" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,6 +21,42 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">m</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">m</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -43,6 +79,78 @@
         </r>
       </text>
     </comment>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">m</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">N/m^2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">N/m^2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">N/m^2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">N/m^2</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -66,6 +174,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">N</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -125,10 +246,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0.00"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -156,6 +278,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -200,7 +327,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -211,6 +338,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -232,8 +363,8 @@
   </sheetPr>
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -439,6 +570,7 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -732,13 +864,13 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.5816326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.9540816326531"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.0969387755102"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5816326530612"/>
   </cols>
   <sheetData>
@@ -806,7 +938,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -845,13 +977,13 @@
         <v>0</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>-7.5</v>
+        <v>-7500</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>-10</v>
+        <v>-10000</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -865,13 +997,13 @@
         <v>0</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>-5</v>
+        <v>-5000</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>-7.5</v>
+        <v>-7500</v>
       </c>
     </row>
   </sheetData>
@@ -882,6 +1014,7 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -892,8 +1025,8 @@
   </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L13" activeCellId="0" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -901,7 +1034,7 @@
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5816326530612"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="24.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -919,7 +1052,7 @@
       <c r="B2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="3" t="n">
         <f aca="false">7000*COS(RADIANS(60))</f>
         <v>3500</v>
       </c>
@@ -931,7 +1064,7 @@
       <c r="B3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="3" t="n">
         <f aca="false">7000*SIN(RADIANS(60))</f>
         <v>6062.17782649107</v>
       </c>
